--- a/Code/Results/Cases/Case_2_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.037581483594278</v>
+        <v>1.062304685384816</v>
       </c>
       <c r="D2">
-        <v>1.050273226077998</v>
+        <v>1.064189260177001</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.055493395035285</v>
+        <v>1.073736894670149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060187254933289</v>
+        <v>1.052074938943202</v>
       </c>
       <c r="J2">
-        <v>1.058693435978976</v>
+        <v>1.067275896249443</v>
       </c>
       <c r="K2">
-        <v>1.061073939181451</v>
+        <v>1.066905869256302</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.066230190754052</v>
+        <v>1.076427963749218</v>
       </c>
       <c r="N2">
-        <v>1.060196902091901</v>
+        <v>1.068791550440374</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.043011049551561</v>
+        <v>1.063422942059306</v>
       </c>
       <c r="D3">
-        <v>1.054410121355497</v>
+        <v>1.065059381542899</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.060181896106488</v>
+        <v>1.074747372887864</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062084746532463</v>
+        <v>1.052406041411569</v>
       </c>
       <c r="J3">
-        <v>1.062394115789129</v>
+        <v>1.068047730986211</v>
       </c>
       <c r="K3">
-        <v>1.06439111348587</v>
+        <v>1.067591009589813</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.070098567193574</v>
+        <v>1.077254957915052</v>
       </c>
       <c r="N3">
-        <v>1.063902837291857</v>
+        <v>1.069564481270999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.046443259455587</v>
+        <v>1.064146453422601</v>
       </c>
       <c r="D4">
-        <v>1.057028237227433</v>
+        <v>1.065622352530646</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.06315125425302</v>
+        <v>1.075401476374802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063275196958896</v>
+        <v>1.052619105517238</v>
       </c>
       <c r="J4">
-        <v>1.064729193089111</v>
+        <v>1.06854649309594</v>
       </c>
       <c r="K4">
-        <v>1.066483857688048</v>
+        <v>1.068033643414514</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.072542867717166</v>
+        <v>1.077789719188514</v>
       </c>
       <c r="N4">
-        <v>1.066241230669443</v>
+        <v>1.070063951680132</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047867541955978</v>
+        <v>1.064450600179151</v>
       </c>
       <c r="D5">
-        <v>1.058115363666298</v>
+        <v>1.065859012029514</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.064384753030687</v>
+        <v>1.075676522803959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063767002491231</v>
+        <v>1.052708394878483</v>
       </c>
       <c r="J5">
-        <v>1.065697135611158</v>
+        <v>1.068756013269823</v>
       </c>
       <c r="K5">
-        <v>1.067351253658141</v>
+        <v>1.068219559646309</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.073556895451655</v>
+        <v>1.078014446810909</v>
       </c>
       <c r="N5">
-        <v>1.067210547780895</v>
+        <v>1.070273769396694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.048105615637503</v>
+        <v>1.064501666755296</v>
       </c>
       <c r="D6">
-        <v>1.058297118483148</v>
+        <v>1.065898747404022</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.06459101075015</v>
+        <v>1.075722707903217</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063849078899485</v>
+        <v>1.052723370372996</v>
       </c>
       <c r="J6">
-        <v>1.065858867275668</v>
+        <v>1.068791183285413</v>
       </c>
       <c r="K6">
-        <v>1.067496179356144</v>
+        <v>1.068250766005776</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.07372637479412</v>
+        <v>1.078052174523166</v>
       </c>
       <c r="N6">
-        <v>1.06737250912292</v>
+        <v>1.070308989357741</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.046462362931152</v>
+        <v>1.064150517514074</v>
       </c>
       <c r="D7">
-        <v>1.057042815944566</v>
+        <v>1.065625514839722</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.06316779378228</v>
+        <v>1.075405151317796</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063281802153281</v>
+        <v>1.052620299717184</v>
       </c>
       <c r="J7">
-        <v>1.064742180040266</v>
+        <v>1.068549293340951</v>
       </c>
       <c r="K7">
-        <v>1.066495495984943</v>
+        <v>1.068036128292577</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.072556469805168</v>
+        <v>1.077792722348003</v>
       </c>
       <c r="N7">
-        <v>1.066254236063559</v>
+        <v>1.070066755901812</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039433711905213</v>
+        <v>1.062682621483013</v>
       </c>
       <c r="D8">
-        <v>1.051683799650273</v>
+        <v>1.064483333205005</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.057091607054437</v>
+        <v>1.074078337351246</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060836430965717</v>
+        <v>1.052187081189714</v>
       </c>
       <c r="J8">
-        <v>1.059956744662561</v>
+        <v>1.067536879529513</v>
       </c>
       <c r="K8">
-        <v>1.062206395910523</v>
+        <v>1.067137560135085</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.067550023981062</v>
+        <v>1.076707524678425</v>
       </c>
       <c r="N8">
-        <v>1.06146200481872</v>
+        <v>1.069052904346637</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0263891433242</v>
+        <v>1.060095393584969</v>
       </c>
       <c r="D9">
-        <v>1.041765185469343</v>
+        <v>1.062470243236722</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.045862323812958</v>
+        <v>1.071742289412711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056227679708641</v>
+        <v>1.051414645867685</v>
       </c>
       <c r="J9">
-        <v>1.051043252966326</v>
+        <v>1.065747764130038</v>
       </c>
       <c r="K9">
-        <v>1.054215139180414</v>
+        <v>1.065548822530413</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.058252695143714</v>
+        <v>1.074792516269514</v>
       </c>
       <c r="N9">
-        <v>1.052535854941885</v>
+        <v>1.06726124819808</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.017191811208718</v>
+        <v>1.058370122510355</v>
       </c>
       <c r="D10">
-        <v>1.034794696447046</v>
+        <v>1.061127907243971</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.037981398786074</v>
+        <v>1.070186248409136</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052933120799483</v>
+        <v>1.050893601672239</v>
       </c>
       <c r="J10">
-        <v>1.04473955577875</v>
+        <v>1.064551569514875</v>
       </c>
       <c r="K10">
-        <v>1.048562910150407</v>
+        <v>1.064486065401274</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.051697155746678</v>
+        <v>1.073513991204666</v>
       </c>
       <c r="N10">
-        <v>1.046223205781257</v>
+        <v>1.066063354849358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.013076139386759</v>
+        <v>1.05762294308273</v>
       </c>
       <c r="D11">
-        <v>1.031681971106569</v>
+        <v>1.060546595927285</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.034464492148255</v>
+        <v>1.06951277884058</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051448787881559</v>
+        <v>1.050666538739368</v>
       </c>
       <c r="J11">
-        <v>1.041914874890946</v>
+        <v>1.064032781712134</v>
       </c>
       <c r="K11">
-        <v>1.046030162331495</v>
+        <v>1.064025024458291</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.048764466417861</v>
+        <v>1.072959934749653</v>
       </c>
       <c r="N11">
-        <v>1.043394513522598</v>
+        <v>1.065543830308432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011526045859421</v>
+        <v>1.057345387464081</v>
       </c>
       <c r="D12">
-        <v>1.030510686770203</v>
+        <v>1.060330660288808</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.033141463487151</v>
+        <v>1.069262668120909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050888285287597</v>
+        <v>1.050581979834142</v>
       </c>
       <c r="J12">
-        <v>1.040850488264561</v>
+        <v>1.063839956050347</v>
       </c>
       <c r="K12">
-        <v>1.045075799547761</v>
+        <v>1.06385364385193</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.047660125689871</v>
+        <v>1.072754066168675</v>
       </c>
       <c r="N12">
-        <v>1.042328615345116</v>
+        <v>1.065350730812088</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.011859535163484</v>
+        <v>1.057404925004029</v>
       </c>
       <c r="D13">
-        <v>1.030762628708938</v>
+        <v>1.060376979703082</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.033426030104331</v>
+        <v>1.069316315646699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051008937389234</v>
+        <v>1.050600127856974</v>
       </c>
       <c r="J13">
-        <v>1.041079504459739</v>
+        <v>1.063881323462489</v>
       </c>
       <c r="K13">
-        <v>1.045281141601967</v>
+        <v>1.063890411436722</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.047897704550611</v>
+        <v>1.072798228729428</v>
       </c>
       <c r="N13">
-        <v>1.042557956769561</v>
+        <v>1.065392156970699</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012948451884716</v>
+        <v>1.057600000660845</v>
       </c>
       <c r="D14">
-        <v>1.031585465399788</v>
+        <v>1.060528746839395</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.034355476835801</v>
+        <v>1.069492103675877</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051402646226176</v>
+        <v>1.050659553514301</v>
       </c>
       <c r="J14">
-        <v>1.04182720727583</v>
+        <v>1.064016845230587</v>
       </c>
       <c r="K14">
-        <v>1.045951556289608</v>
+        <v>1.064010860726565</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.048673492761685</v>
+        <v>1.072942918963706</v>
       </c>
       <c r="N14">
-        <v>1.043306721409412</v>
+        <v>1.065527871195253</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013616498201843</v>
+        <v>1.057720190542096</v>
       </c>
       <c r="D15">
-        <v>1.032090416211871</v>
+        <v>1.060622254156748</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.034925896138866</v>
+        <v>1.06960041855455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051643995134867</v>
+        <v>1.050696138780901</v>
       </c>
       <c r="J15">
-        <v>1.042285853274829</v>
+        <v>1.064100328118252</v>
       </c>
       <c r="K15">
-        <v>1.046362796199665</v>
+        <v>1.064085056345459</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.049149465255122</v>
+        <v>1.073032058461541</v>
       </c>
       <c r="N15">
-        <v>1.043766018738338</v>
+        <v>1.065611472638193</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.017462037133568</v>
+        <v>1.058419707612497</v>
       </c>
       <c r="D16">
-        <v>1.03499921352127</v>
+        <v>1.061166485460325</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.038212520458547</v>
+        <v>1.070230950807944</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05303037424998</v>
+        <v>1.050908640582337</v>
       </c>
       <c r="J16">
-        <v>1.044924942598227</v>
+        <v>1.064585982278687</v>
       </c>
       <c r="K16">
-        <v>1.04872913872408</v>
+        <v>1.064516645027498</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.051889733364979</v>
+        <v>1.073550752675839</v>
       </c>
       <c r="N16">
-        <v>1.046408855871283</v>
+        <v>1.066097816483242</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.019837677556135</v>
+        <v>1.058858461817303</v>
       </c>
       <c r="D17">
-        <v>1.036797932088505</v>
+        <v>1.061507848328666</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.040245494333809</v>
+        <v>1.070626548954285</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053884223490361</v>
+        <v>1.05104154972718</v>
       </c>
       <c r="J17">
-        <v>1.046554303655307</v>
+        <v>1.064890398417138</v>
       </c>
       <c r="K17">
-        <v>1.050190121524789</v>
+        <v>1.064787138755749</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.053582845512576</v>
+        <v>1.073875996100402</v>
       </c>
       <c r="N17">
-        <v>1.048040530807954</v>
+        <v>1.066402664927526</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.021210596489363</v>
+        <v>1.059114367665895</v>
       </c>
       <c r="D18">
-        <v>1.037838044230492</v>
+        <v>1.06170695267123</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.041421291416545</v>
+        <v>1.070857324240427</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05437671986384</v>
+        <v>1.051118933745224</v>
       </c>
       <c r="J18">
-        <v>1.047495566267708</v>
+        <v>1.065067879373874</v>
       </c>
       <c r="K18">
-        <v>1.051034113866941</v>
+        <v>1.06494483020157</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.054561392823752</v>
+        <v>1.074065662006596</v>
       </c>
       <c r="N18">
-        <v>1.048983130121229</v>
+        <v>1.066580397927578</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.021676602318926</v>
+        <v>1.059201622933536</v>
       </c>
       <c r="D19">
-        <v>1.038191186334275</v>
+        <v>1.061774840948091</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.041820540477373</v>
+        <v>1.070936017671931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054543722628102</v>
+        <v>1.051145296015921</v>
       </c>
       <c r="J19">
-        <v>1.047814991778364</v>
+        <v>1.065128382266687</v>
       </c>
       <c r="K19">
-        <v>1.05132052936763</v>
+        <v>1.064998584844105</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.054893548137291</v>
+        <v>1.07413032587919</v>
       </c>
       <c r="N19">
-        <v>1.049303009252749</v>
+        <v>1.066640986741439</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.019584122148211</v>
+        <v>1.058811388897716</v>
       </c>
       <c r="D20">
-        <v>1.03660588887258</v>
+        <v>1.06147122403172</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.040028417050806</v>
+        <v>1.070584101958594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05379318983239</v>
+        <v>1.051027304278322</v>
       </c>
       <c r="J20">
-        <v>1.046380437684641</v>
+        <v>1.064857745706247</v>
       </c>
       <c r="K20">
-        <v>1.050034222770059</v>
+        <v>1.064758125922272</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.053402129276371</v>
+        <v>1.073841105016649</v>
       </c>
       <c r="N20">
-        <v>1.047866417927667</v>
+        <v>1.06636996584604</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012628393786821</v>
+        <v>1.057542556299963</v>
       </c>
       <c r="D21">
-        <v>1.031343584285112</v>
+        <v>1.060484055497287</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.034082247252703</v>
+        <v>1.069440337218033</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051286965547671</v>
+        <v>1.050642060148179</v>
       </c>
       <c r="J21">
-        <v>1.041607453775525</v>
+        <v>1.063976940895462</v>
       </c>
       <c r="K21">
-        <v>1.04575451749346</v>
+        <v>1.06397539498893</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.048445464179094</v>
+        <v>1.072900313156965</v>
       </c>
       <c r="N21">
-        <v>1.043086655833931</v>
+        <v>1.065487910191395</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.008130774430419</v>
+        <v>1.056744675177161</v>
       </c>
       <c r="D22">
-        <v>1.02794722243406</v>
+        <v>1.059863321328022</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.030246511944934</v>
+        <v>1.068721472198179</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049657966784084</v>
+        <v>1.050398582694799</v>
       </c>
       <c r="J22">
-        <v>1.038518201816732</v>
+        <v>1.063422421842346</v>
       </c>
       <c r="K22">
-        <v>1.042984651579478</v>
+        <v>1.063482511772369</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.045241684949725</v>
+        <v>1.072308410223782</v>
       </c>
       <c r="N22">
-        <v>1.039993016783014</v>
+        <v>1.064932603657619</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.010527307589083</v>
+        <v>1.057167658368698</v>
       </c>
       <c r="D23">
-        <v>1.029756331832143</v>
+        <v>1.060192390168901</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.032289474462479</v>
+        <v>1.069102531061668</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050526746018145</v>
+        <v>1.050527774112634</v>
       </c>
       <c r="J23">
-        <v>1.04016455583888</v>
+        <v>1.063716451475291</v>
       </c>
       <c r="K23">
-        <v>1.044460778258103</v>
+        <v>1.063743869592464</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.046948657690857</v>
+        <v>1.0726222261914</v>
       </c>
       <c r="N23">
-        <v>1.041641708816714</v>
+        <v>1.065227050846369</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.019698732231194</v>
+        <v>1.058832659160757</v>
       </c>
       <c r="D24">
-        <v>1.036692692837361</v>
+        <v>1.061487772996039</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.04012653576693</v>
+        <v>1.070603281837269</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053834341107331</v>
+        <v>1.051033741614826</v>
       </c>
       <c r="J24">
-        <v>1.046459028339511</v>
+        <v>1.064872500307226</v>
       </c>
       <c r="K24">
-        <v>1.050104691910622</v>
+        <v>1.064771235829078</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.053483814963805</v>
+        <v>1.07385687092847</v>
       </c>
       <c r="N24">
-        <v>1.047945120190281</v>
+        <v>1.066384741400246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.029845261337549</v>
+        <v>1.060764330542578</v>
       </c>
       <c r="D25">
-        <v>1.044389498196505</v>
+        <v>1.062990724353379</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.048831538963033</v>
+        <v>1.072345980469564</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057456686802627</v>
+        <v>1.051615411602341</v>
       </c>
       <c r="J25">
-        <v>1.053408331068236</v>
+        <v>1.066210900627256</v>
       </c>
       <c r="K25">
-        <v>1.056335700197412</v>
+        <v>1.065960183243601</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.060716314309773</v>
+        <v>1.075287918198007</v>
       </c>
       <c r="N25">
-        <v>1.054904291725977</v>
+        <v>1.067725042402246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062304685384816</v>
+        <v>1.037581483594277</v>
       </c>
       <c r="D2">
-        <v>1.064189260177001</v>
+        <v>1.050273226077997</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.073736894670149</v>
+        <v>1.055493395035285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052074938943202</v>
+        <v>1.060187254933289</v>
       </c>
       <c r="J2">
-        <v>1.067275896249443</v>
+        <v>1.058693435978975</v>
       </c>
       <c r="K2">
-        <v>1.066905869256302</v>
+        <v>1.06107393918145</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.076427963749218</v>
+        <v>1.066230190754051</v>
       </c>
       <c r="N2">
-        <v>1.068791550440374</v>
+        <v>1.0601969020919</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063422942059306</v>
+        <v>1.04301104955156</v>
       </c>
       <c r="D3">
-        <v>1.065059381542899</v>
+        <v>1.054410121355495</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.074747372887864</v>
+        <v>1.060181896106486</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052406041411569</v>
+        <v>1.062084746532462</v>
       </c>
       <c r="J3">
-        <v>1.068047730986211</v>
+        <v>1.062394115789127</v>
       </c>
       <c r="K3">
-        <v>1.067591009589813</v>
+        <v>1.064391113485868</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.077254957915052</v>
+        <v>1.070098567193573</v>
       </c>
       <c r="N3">
-        <v>1.069564481270999</v>
+        <v>1.063902837291856</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064146453422601</v>
+        <v>1.046443259455588</v>
       </c>
       <c r="D4">
-        <v>1.065622352530646</v>
+        <v>1.057028237227433</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.075401476374802</v>
+        <v>1.06315125425302</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052619105517238</v>
+        <v>1.063275196958896</v>
       </c>
       <c r="J4">
-        <v>1.06854649309594</v>
+        <v>1.064729193089112</v>
       </c>
       <c r="K4">
-        <v>1.068033643414514</v>
+        <v>1.066483857688048</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.077789719188514</v>
+        <v>1.072542867717166</v>
       </c>
       <c r="N4">
-        <v>1.070063951680132</v>
+        <v>1.066241230669444</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064450600179151</v>
+        <v>1.04786754195598</v>
       </c>
       <c r="D5">
-        <v>1.065859012029514</v>
+        <v>1.0581153636663</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.075676522803959</v>
+        <v>1.06438475303069</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052708394878483</v>
+        <v>1.063767002491232</v>
       </c>
       <c r="J5">
-        <v>1.068756013269823</v>
+        <v>1.065697135611159</v>
       </c>
       <c r="K5">
-        <v>1.068219559646309</v>
+        <v>1.067351253658142</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.078014446810909</v>
+        <v>1.073556895451656</v>
       </c>
       <c r="N5">
-        <v>1.070273769396694</v>
+        <v>1.067210547780897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064501666755296</v>
+        <v>1.048105615637503</v>
       </c>
       <c r="D6">
-        <v>1.065898747404022</v>
+        <v>1.058297118483148</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.075722707903217</v>
+        <v>1.06459101075015</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052723370372996</v>
+        <v>1.063849078899485</v>
       </c>
       <c r="J6">
-        <v>1.068791183285413</v>
+        <v>1.065858867275668</v>
       </c>
       <c r="K6">
-        <v>1.068250766005776</v>
+        <v>1.067496179356144</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.078052174523166</v>
+        <v>1.07372637479412</v>
       </c>
       <c r="N6">
-        <v>1.070308989357741</v>
+        <v>1.06737250912292</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064150517514074</v>
+        <v>1.04646236293115</v>
       </c>
       <c r="D7">
-        <v>1.065625514839722</v>
+        <v>1.057042815944565</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.075405151317796</v>
+        <v>1.063167793782279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052620299717184</v>
+        <v>1.06328180215328</v>
       </c>
       <c r="J7">
-        <v>1.068549293340951</v>
+        <v>1.064742180040265</v>
       </c>
       <c r="K7">
-        <v>1.068036128292577</v>
+        <v>1.066495495984942</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.077792722348003</v>
+        <v>1.072556469805166</v>
       </c>
       <c r="N7">
-        <v>1.070066755901812</v>
+        <v>1.066254236063557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062682621483013</v>
+        <v>1.039433711905215</v>
       </c>
       <c r="D8">
-        <v>1.064483333205005</v>
+        <v>1.051683799650274</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.074078337351246</v>
+        <v>1.057091607054438</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052187081189714</v>
+        <v>1.060836430965717</v>
       </c>
       <c r="J8">
-        <v>1.067536879529513</v>
+        <v>1.059956744662563</v>
       </c>
       <c r="K8">
-        <v>1.067137560135085</v>
+        <v>1.062206395910524</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.076707524678425</v>
+        <v>1.067550023981064</v>
       </c>
       <c r="N8">
-        <v>1.069052904346637</v>
+        <v>1.061462004818722</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060095393584969</v>
+        <v>1.026389143324202</v>
       </c>
       <c r="D9">
-        <v>1.062470243236722</v>
+        <v>1.041765185469345</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.071742289412711</v>
+        <v>1.04586232381296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051414645867685</v>
+        <v>1.056227679708641</v>
       </c>
       <c r="J9">
-        <v>1.065747764130038</v>
+        <v>1.051043252966328</v>
       </c>
       <c r="K9">
-        <v>1.065548822530413</v>
+        <v>1.054215139180416</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.074792516269514</v>
+        <v>1.058252695143716</v>
       </c>
       <c r="N9">
-        <v>1.06726124819808</v>
+        <v>1.052535854941886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058370122510355</v>
+        <v>1.017191811208718</v>
       </c>
       <c r="D10">
-        <v>1.061127907243971</v>
+        <v>1.034794696447047</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.070186248409136</v>
+        <v>1.037981398786075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050893601672239</v>
+        <v>1.052933120799484</v>
       </c>
       <c r="J10">
-        <v>1.064551569514875</v>
+        <v>1.04473955577875</v>
       </c>
       <c r="K10">
-        <v>1.064486065401274</v>
+        <v>1.048562910150407</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.073513991204666</v>
+        <v>1.051697155746678</v>
       </c>
       <c r="N10">
-        <v>1.066063354849358</v>
+        <v>1.046223205781258</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.05762294308273</v>
+        <v>1.01307613938676</v>
       </c>
       <c r="D11">
-        <v>1.060546595927285</v>
+        <v>1.031681971106569</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.06951277884058</v>
+        <v>1.034464492148255</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050666538739368</v>
+        <v>1.051448787881559</v>
       </c>
       <c r="J11">
-        <v>1.064032781712134</v>
+        <v>1.041914874890947</v>
       </c>
       <c r="K11">
-        <v>1.064025024458291</v>
+        <v>1.046030162331496</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.072959934749653</v>
+        <v>1.048764466417861</v>
       </c>
       <c r="N11">
-        <v>1.065543830308432</v>
+        <v>1.043394513522598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057345387464081</v>
+        <v>1.011526045859421</v>
       </c>
       <c r="D12">
-        <v>1.060330660288808</v>
+        <v>1.030510686770204</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.069262668120909</v>
+        <v>1.033141463487152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050581979834142</v>
+        <v>1.050888285287597</v>
       </c>
       <c r="J12">
-        <v>1.063839956050347</v>
+        <v>1.040850488264562</v>
       </c>
       <c r="K12">
-        <v>1.06385364385193</v>
+        <v>1.045075799547762</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.072754066168675</v>
+        <v>1.047660125689871</v>
       </c>
       <c r="N12">
-        <v>1.065350730812088</v>
+        <v>1.042328615345117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057404925004029</v>
+        <v>1.011859535163484</v>
       </c>
       <c r="D13">
-        <v>1.060376979703082</v>
+        <v>1.030762628708938</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.069316315646699</v>
+        <v>1.033426030104331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050600127856974</v>
+        <v>1.051008937389234</v>
       </c>
       <c r="J13">
-        <v>1.063881323462489</v>
+        <v>1.041079504459739</v>
       </c>
       <c r="K13">
-        <v>1.063890411436722</v>
+        <v>1.045281141601966</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.072798228729428</v>
+        <v>1.047897704550611</v>
       </c>
       <c r="N13">
-        <v>1.065392156970699</v>
+        <v>1.04255795676956</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.057600000660845</v>
+        <v>1.012948451884716</v>
       </c>
       <c r="D14">
-        <v>1.060528746839395</v>
+        <v>1.031585465399789</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.069492103675877</v>
+        <v>1.034355476835802</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050659553514301</v>
+        <v>1.051402646226176</v>
       </c>
       <c r="J14">
-        <v>1.064016845230587</v>
+        <v>1.041827207275831</v>
       </c>
       <c r="K14">
-        <v>1.064010860726565</v>
+        <v>1.045951556289608</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.072942918963706</v>
+        <v>1.048673492761685</v>
       </c>
       <c r="N14">
-        <v>1.065527871195253</v>
+        <v>1.043306721409413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057720190542096</v>
+        <v>1.013616498201842</v>
       </c>
       <c r="D15">
-        <v>1.060622254156748</v>
+        <v>1.03209041621187</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.06960041855455</v>
+        <v>1.034925896138866</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050696138780901</v>
+        <v>1.051643995134866</v>
       </c>
       <c r="J15">
-        <v>1.064100328118252</v>
+        <v>1.042285853274829</v>
       </c>
       <c r="K15">
-        <v>1.064085056345459</v>
+        <v>1.046362796199664</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.073032058461541</v>
+        <v>1.049149465255122</v>
       </c>
       <c r="N15">
-        <v>1.065611472638193</v>
+        <v>1.043766018738338</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058419707612497</v>
+        <v>1.017462037133568</v>
       </c>
       <c r="D16">
-        <v>1.061166485460325</v>
+        <v>1.03499921352127</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.070230950807944</v>
+        <v>1.038212520458546</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050908640582337</v>
+        <v>1.053030374249979</v>
       </c>
       <c r="J16">
-        <v>1.064585982278687</v>
+        <v>1.044924942598227</v>
       </c>
       <c r="K16">
-        <v>1.064516645027498</v>
+        <v>1.048729138724079</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.073550752675839</v>
+        <v>1.051889733364978</v>
       </c>
       <c r="N16">
-        <v>1.066097816483242</v>
+        <v>1.046408855871282</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058858461817303</v>
+        <v>1.019837677556134</v>
       </c>
       <c r="D17">
-        <v>1.061507848328666</v>
+        <v>1.036797932088505</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.070626548954285</v>
+        <v>1.040245494333809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05104154972718</v>
+        <v>1.05388422349036</v>
       </c>
       <c r="J17">
-        <v>1.064890398417138</v>
+        <v>1.046554303655307</v>
       </c>
       <c r="K17">
-        <v>1.064787138755749</v>
+        <v>1.050190121524788</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.073875996100402</v>
+        <v>1.053582845512576</v>
       </c>
       <c r="N17">
-        <v>1.066402664927526</v>
+        <v>1.048040530807954</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059114367665895</v>
+        <v>1.021210596489364</v>
       </c>
       <c r="D18">
-        <v>1.06170695267123</v>
+        <v>1.037838044230492</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.070857324240427</v>
+        <v>1.041421291416545</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051118933745224</v>
+        <v>1.054376719863841</v>
       </c>
       <c r="J18">
-        <v>1.065067879373874</v>
+        <v>1.047495566267709</v>
       </c>
       <c r="K18">
-        <v>1.06494483020157</v>
+        <v>1.051034113866941</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.074065662006596</v>
+        <v>1.054561392823753</v>
       </c>
       <c r="N18">
-        <v>1.066580397927578</v>
+        <v>1.04898313012123</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059201622933536</v>
+        <v>1.021676602318925</v>
       </c>
       <c r="D19">
-        <v>1.061774840948091</v>
+        <v>1.038191186334274</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.070936017671931</v>
+        <v>1.041820540477371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051145296015921</v>
+        <v>1.0545437226281</v>
       </c>
       <c r="J19">
-        <v>1.065128382266687</v>
+        <v>1.047814991778362</v>
       </c>
       <c r="K19">
-        <v>1.064998584844105</v>
+        <v>1.051320529367629</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.07413032587919</v>
+        <v>1.05489354813729</v>
       </c>
       <c r="N19">
-        <v>1.066640986741439</v>
+        <v>1.049303009252747</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058811388897716</v>
+        <v>1.01958412214821</v>
       </c>
       <c r="D20">
-        <v>1.06147122403172</v>
+        <v>1.036605888872578</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.070584101958594</v>
+        <v>1.040028417050806</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051027304278322</v>
+        <v>1.053793189832389</v>
       </c>
       <c r="J20">
-        <v>1.064857745706247</v>
+        <v>1.046380437684641</v>
       </c>
       <c r="K20">
-        <v>1.064758125922272</v>
+        <v>1.050034222770058</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.073841105016649</v>
+        <v>1.053402129276371</v>
       </c>
       <c r="N20">
-        <v>1.06636996584604</v>
+        <v>1.047866417927666</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.057542556299963</v>
+        <v>1.012628393786821</v>
       </c>
       <c r="D21">
-        <v>1.060484055497287</v>
+        <v>1.031343584285112</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.069440337218033</v>
+        <v>1.034082247252703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050642060148179</v>
+        <v>1.051286965547671</v>
       </c>
       <c r="J21">
-        <v>1.063976940895462</v>
+        <v>1.041607453775525</v>
       </c>
       <c r="K21">
-        <v>1.06397539498893</v>
+        <v>1.045754517493459</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.072900313156965</v>
+        <v>1.048445464179094</v>
       </c>
       <c r="N21">
-        <v>1.065487910191395</v>
+        <v>1.043086655833931</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056744675177161</v>
+        <v>1.008130774430419</v>
       </c>
       <c r="D22">
-        <v>1.059863321328022</v>
+        <v>1.02794722243406</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.068721472198179</v>
+        <v>1.030246511944935</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050398582694799</v>
+        <v>1.049657966784085</v>
       </c>
       <c r="J22">
-        <v>1.063422421842346</v>
+        <v>1.038518201816732</v>
       </c>
       <c r="K22">
-        <v>1.063482511772369</v>
+        <v>1.042984651579479</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.072308410223782</v>
+        <v>1.045241684949725</v>
       </c>
       <c r="N22">
-        <v>1.064932603657619</v>
+        <v>1.039993016783015</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057167658368698</v>
+        <v>1.010527307589082</v>
       </c>
       <c r="D23">
-        <v>1.060192390168901</v>
+        <v>1.029756331832142</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.069102531061668</v>
+        <v>1.032289474462478</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050527774112634</v>
+        <v>1.050526746018144</v>
       </c>
       <c r="J23">
-        <v>1.063716451475291</v>
+        <v>1.040164555838879</v>
       </c>
       <c r="K23">
-        <v>1.063743869592464</v>
+        <v>1.044460778258103</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.0726222261914</v>
+        <v>1.046948657690856</v>
       </c>
       <c r="N23">
-        <v>1.065227050846369</v>
+        <v>1.041641708816713</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058832659160757</v>
+        <v>1.019698732231191</v>
       </c>
       <c r="D24">
-        <v>1.061487772996039</v>
+        <v>1.036692692837357</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.070603281837269</v>
+        <v>1.040126535766926</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051033741614826</v>
+        <v>1.053834341107329</v>
       </c>
       <c r="J24">
-        <v>1.064872500307226</v>
+        <v>1.046459028339508</v>
       </c>
       <c r="K24">
-        <v>1.064771235829078</v>
+        <v>1.050104691910619</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.07385687092847</v>
+        <v>1.053483814963802</v>
       </c>
       <c r="N24">
-        <v>1.066384741400246</v>
+        <v>1.047945120190278</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060764330542578</v>
+        <v>1.029845261337551</v>
       </c>
       <c r="D25">
-        <v>1.062990724353379</v>
+        <v>1.044389498196507</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.072345980469564</v>
+        <v>1.048831538963034</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051615411602341</v>
+        <v>1.057456686802628</v>
       </c>
       <c r="J25">
-        <v>1.066210900627256</v>
+        <v>1.053408331068237</v>
       </c>
       <c r="K25">
-        <v>1.065960183243601</v>
+        <v>1.056335700197413</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.075287918198007</v>
+        <v>1.060716314309774</v>
       </c>
       <c r="N25">
-        <v>1.067725042402246</v>
+        <v>1.054904291725978</v>
       </c>
     </row>
   </sheetData>
